--- a/Dados lucro agencia de propaganda.xlsx
+++ b/Dados lucro agencia de propaganda.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="B4:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,7 +394,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
-        <v>1975</v>
+        <v>2000</v>
       </c>
       <c r="C5" s="1">
         <v>51</v>
@@ -402,7 +402,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
-        <v>1976</v>
+        <v>2001</v>
       </c>
       <c r="C6" s="1">
         <v>54.1</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
-        <v>1977</v>
+        <v>2002</v>
       </c>
       <c r="C7" s="1">
         <v>56.4</v>
@@ -418,7 +418,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="C8" s="1">
         <v>58.1</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
-        <v>1979</v>
+        <v>2004</v>
       </c>
       <c r="C9" s="1">
         <v>69.5</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
-        <v>1980</v>
+        <v>2005</v>
       </c>
       <c r="C10" s="1">
         <v>79.2</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
-        <v>1981</v>
+        <v>2006</v>
       </c>
       <c r="C11" s="1">
         <v>89.2</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
-        <v>1982</v>
+        <v>2007</v>
       </c>
       <c r="C12" s="1">
         <v>93</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="C13" s="1">
         <v>102.8</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
-        <v>1984</v>
+        <v>2009</v>
       </c>
       <c r="C14" s="1">
         <v>98</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="1">
         <v>83.6</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="C16" s="1">
         <v>81</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
-        <v>1987</v>
+        <v>2012</v>
       </c>
       <c r="C17" s="1">
         <v>87</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
-        <v>1988</v>
+        <v>2013</v>
       </c>
       <c r="C18" s="1">
         <v>102.9</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="C19" s="1">
         <v>100.9</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="C20" s="1">
         <v>110.9</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="C21" s="1">
         <v>133.30000000000001</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
-        <v>1992</v>
+        <v>2017</v>
       </c>
       <c r="C22" s="1">
         <v>192.8</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="C23" s="1">
         <v>234</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="C24" s="3">
         <v>238.9</v>
